--- a/results/FrequencyTables/26538064_LTR-L.xlsx
+++ b/results/FrequencyTables/26538064_LTR-L.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.01</v>
+        <v>0.00721500721500722</v>
       </c>
       <c r="C2">
-        <v>0.44</v>
+        <v>0.543290043290043</v>
       </c>
       <c r="D2">
-        <v>0.01</v>
+        <v>0.0505050505050505</v>
       </c>
       <c r="E2">
-        <v>0.02</v>
+        <v>0.0555555555555556</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.00865800865800866</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.00793650793650794</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.0331890331890332</v>
       </c>
       <c r="J2">
-        <v>0.18</v>
+        <v>0.238095238095238</v>
       </c>
       <c r="K2">
-        <v>0.75</v>
+        <v>0.758297258297258</v>
       </c>
       <c r="L2">
-        <v>0.18</v>
+        <v>0.213564213564214</v>
       </c>
       <c r="M2">
-        <v>0.82</v>
+        <v>0.782828282828283</v>
       </c>
       <c r="N2">
-        <v>0.01</v>
+        <v>0.0108225108225108</v>
       </c>
       <c r="O2">
-        <v>0.05</v>
+        <v>0.0562770562770563</v>
       </c>
       <c r="P2">
-        <v>0.01</v>
+        <v>0.0158730158730159</v>
       </c>
       <c r="Q2">
-        <v>0.01</v>
+        <v>0.0281385281385281</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.994227994227994</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.00216450216450216</v>
       </c>
       <c r="U2">
-        <v>0.18</v>
+        <v>0.209235209235209</v>
       </c>
       <c r="V2">
-        <v>0.01</v>
+        <v>0.00288600288600289</v>
       </c>
       <c r="W2">
-        <v>0.19</v>
+        <v>0.24963924963925</v>
       </c>
       <c r="X2">
-        <v>0.18</v>
+        <v>0.216450216450216</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8</v>
+        <v>0.758297258297258</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0202020202020202</v>
       </c>
       <c r="D3">
-        <v>0.03</v>
+        <v>0.018037518037518</v>
       </c>
       <c r="E3">
-        <v>0.18</v>
+        <v>0.218614718614719</v>
       </c>
       <c r="F3">
-        <v>0.18</v>
+        <v>0.210678210678211</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>0.992063492063492</v>
       </c>
       <c r="H3">
-        <v>0.82</v>
+        <v>0.784271284271284</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.963924963924964</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.00432900432900433</v>
       </c>
       <c r="K3">
-        <v>0.07</v>
+        <v>0.0230880230880231</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.00360750360750361</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="O3">
-        <v>0.95</v>
+        <v>0.935786435786436</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.00144300144300144</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0.968253968253968</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>0.0238095238095238</v>
       </c>
       <c r="U3">
-        <v>0.82</v>
+        <v>0.788600288600289</v>
       </c>
       <c r="V3">
-        <v>0.82</v>
+        <v>0.784992784992785</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.00865800865800866</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.0108225108225108</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.17</v>
+        <v>0.207070707070707</v>
       </c>
       <c r="C4">
-        <v>0.56</v>
+        <v>0.427128427128427</v>
       </c>
       <c r="D4">
-        <v>0.18</v>
+        <v>0.20995670995671</v>
       </c>
       <c r="E4">
-        <v>0.8</v>
+        <v>0.713564213564214</v>
       </c>
       <c r="F4">
-        <v>0.82</v>
+        <v>0.776334776334776</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00360750360750361</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="J4">
-        <v>0.82</v>
+        <v>0.756854256854257</v>
       </c>
       <c r="K4">
-        <v>0.18</v>
+        <v>0.215007215007215</v>
       </c>
       <c r="L4">
-        <v>0.82</v>
+        <v>0.779220779220779</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00216450216450216</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>0.963924963924964</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="Q4">
-        <v>0.99</v>
+        <v>0.971861471861472</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.00360750360750361</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>0.00432900432900433</v>
       </c>
       <c r="T4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.00216450216450216</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="W4">
-        <v>0.79</v>
+        <v>0.73015873015873</v>
       </c>
       <c r="X4">
-        <v>0.82</v>
+        <v>0.769119769119769</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,73 +687,73 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.02</v>
+        <v>0.0274170274170274</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.00865800865800866</v>
       </c>
       <c r="D5">
-        <v>0.78</v>
+        <v>0.721500721500722</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.0122655122655123</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00432900432900433</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.18</v>
+        <v>0.212121212121212</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.00216450216450216</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00360750360750361</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.00360750360750361</v>
       </c>
       <c r="M5">
-        <v>0.18</v>
+        <v>0.215007215007215</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.0245310245310245</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.00649350649350649</v>
       </c>
       <c r="P5">
-        <v>0.99</v>
+        <v>0.981962481962482</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.0274170274170274</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.000721500721500722</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>0.974025974025974</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0.17</v>
+        <v>0.211399711399711</v>
       </c>
       <c r="W5">
-        <v>0.02</v>
+        <v>0.0115440115440115</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.00360750360750361</v>
       </c>
     </row>
   </sheetData>
